--- a/excell/loto.xlsx
+++ b/excell/loto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="335">
   <si>
     <t>ID</t>
   </si>
@@ -40,43 +40,995 @@
     <t>Data Pay</t>
   </si>
   <si>
-    <t>№ чека QR9964927993</t>
-  </si>
-  <si>
-    <t>senior_coffee_drinker</t>
-  </si>
-  <si>
-    <t>800703982_1742838301_67694666.pdf</t>
-  </si>
-  <si>
-    <t>Ерек</t>
-  </si>
-  <si>
-    <t>77471850499</t>
-  </si>
-  <si>
-    <t>Алматы, шашкина 14</t>
-  </si>
-  <si>
-    <t>2025-03-24 22:45:22</t>
-  </si>
-  <si>
-    <t>№ чека QR9965647710</t>
-  </si>
-  <si>
-    <t>6063547663_1742838602_87767490.pdf</t>
-  </si>
-  <si>
-    <t>Нариман</t>
-  </si>
-  <si>
-    <t>77051383709</t>
-  </si>
-  <si>
-    <t>Абая 50</t>
-  </si>
-  <si>
-    <t>2025-03-24 22:50:38</t>
+    <t>№ чека QR9986649310</t>
+  </si>
+  <si>
+    <t>🧦 Қысқа қара түсті шұлық 7 дана</t>
+  </si>
+  <si>
+    <t>840315542_1743010930_55995048.pdf</t>
+  </si>
+  <si>
+    <t>Абенова Айпарша Анарбаевна</t>
+  </si>
+  <si>
+    <t>77774481725</t>
+  </si>
+  <si>
+    <t>Түркістан облысы,Отырар ауданы,Шәуілдір ауылы, Н.Оңдасынов көшесі, 14үй</t>
+  </si>
+  <si>
+    <t>2025-03-26 17:43:27</t>
+  </si>
+  <si>
+    <t>№ чека QR9985726804</t>
+  </si>
+  <si>
+    <t>/go</t>
+  </si>
+  <si>
+    <t>534713083_1743021182_10468553.pdf</t>
+  </si>
+  <si>
+    <t>Рахимбаева Гульмира Ниязовна</t>
+  </si>
+  <si>
+    <t>77027308685</t>
+  </si>
+  <si>
+    <t>Алматы, Жетысу-2, 85үй, 109патер</t>
+  </si>
+  <si>
+    <t>2025-03-26 20:34:46</t>
+  </si>
+  <si>
+    <t>№ чека QR9995181769</t>
+  </si>
+  <si>
+    <t>Akmanet1</t>
+  </si>
+  <si>
+    <t>1019994867_1743083505_15214745.pdf</t>
+  </si>
+  <si>
+    <t>Муханбаева Акманет</t>
+  </si>
+  <si>
+    <t>77011332300</t>
+  </si>
+  <si>
+    <t>Атырау Нурсая 81үй 27кв</t>
+  </si>
+  <si>
+    <t>2025-03-27 13:53:55</t>
+  </si>
+  <si>
+    <t>№ чека QR9995471957</t>
+  </si>
+  <si>
+    <t>🧦 Ұзын қара түсті шұлық 5 дана</t>
+  </si>
+  <si>
+    <t>5393218309_1743084766_81095268.pdf</t>
+  </si>
+  <si>
+    <t>Умбеталиева Айгул</t>
+  </si>
+  <si>
+    <t>77052274950</t>
+  </si>
+  <si>
+    <t>Мангышлак 44-жатахана 5-кв</t>
+  </si>
+  <si>
+    <t>2025-03-27 14:13:43</t>
+  </si>
+  <si>
+    <t>№ чека QR9995607678</t>
+  </si>
+  <si>
+    <t>Karabalaeva92</t>
+  </si>
+  <si>
+    <t>728968199_1743085205_49819345.pdf</t>
+  </si>
+  <si>
+    <t>Қарабалаева Ләззат</t>
+  </si>
+  <si>
+    <t>77022053717</t>
+  </si>
+  <si>
+    <t>Маңғыстау облысы, Мұнайлы ауданы, Маңғыстау-5 учас-738</t>
+  </si>
+  <si>
+    <t>2025-03-27 14:20:35</t>
+  </si>
+  <si>
+    <t>№ чека QR9995823737</t>
+  </si>
+  <si>
+    <t>6011915750_1743086185_76303891.pdf</t>
+  </si>
+  <si>
+    <t>Кувандыкова Нұрзия</t>
+  </si>
+  <si>
+    <t>77754306464</t>
+  </si>
+  <si>
+    <t>Жаңаөзен,Шұғыла ш/а.99 пәтер</t>
+  </si>
+  <si>
+    <t>2025-03-27 14:37:31</t>
+  </si>
+  <si>
+    <t>№ чека QR9996200117</t>
+  </si>
+  <si>
+    <t>6856678700_1743088057_13647874.pdf</t>
+  </si>
+  <si>
+    <t>Күміс</t>
+  </si>
+  <si>
+    <t>77016800489</t>
+  </si>
+  <si>
+    <t>Ақтау қаласы 26-31-89</t>
+  </si>
+  <si>
+    <t>2025-03-27 15:09:50</t>
+  </si>
+  <si>
+    <t>№ чека QR9996729891</t>
+  </si>
+  <si>
+    <t>Irinadsrwe</t>
+  </si>
+  <si>
+    <t>957813212_1743090884_13161716.pdf</t>
+  </si>
+  <si>
+    <t>Тілеужан Исатай</t>
+  </si>
+  <si>
+    <t>77017047000</t>
+  </si>
+  <si>
+    <t>Алматы</t>
+  </si>
+  <si>
+    <t>2025-03-27 15:55:46</t>
+  </si>
+  <si>
+    <t>№ чека QR9996400103</t>
+  </si>
+  <si>
+    <t>957813212_1743091163_96985681.pdf</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:03:40</t>
+  </si>
+  <si>
+    <t>№ чека QR9996934026</t>
+  </si>
+  <si>
+    <t>🧦 Қысқа ақ түсті шұлық 7 дана</t>
+  </si>
+  <si>
+    <t>7426205997_1743092125_25874905.pdf</t>
+  </si>
+  <si>
+    <t>Айнур Мажитова</t>
+  </si>
+  <si>
+    <t>77760175977</t>
+  </si>
+  <si>
+    <t>Атырау 
+Абулхайырхана65
+Кв89</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:16:28</t>
+  </si>
+  <si>
+    <t>№ чека QR9997146596</t>
+  </si>
+  <si>
+    <t>6522265911_1743093457_91791115.pdf</t>
+  </si>
+  <si>
+    <t>Бердыхан Гулсайра</t>
+  </si>
+  <si>
+    <t>77710000144</t>
+  </si>
+  <si>
+    <t>Аккент 57 /16</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:38:20</t>
+  </si>
+  <si>
+    <t>№ чека QR9996349932</t>
+  </si>
+  <si>
+    <t>6522265911_1743093868_76727755.pdf</t>
+  </si>
+  <si>
+    <t>Алматы каласы Аккент 57/16</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:45:18</t>
+  </si>
+  <si>
+    <t>№ чека QR9997240978</t>
+  </si>
+  <si>
+    <t>🧦 Ұзын ақ түсті шұлық 5 дана</t>
+  </si>
+  <si>
+    <t>6063547663_1743094124_95233717.pdf</t>
+  </si>
+  <si>
+    <t>Abuov Nariman</t>
+  </si>
+  <si>
+    <t>79178264083</t>
+  </si>
+  <si>
+    <t>Санаторий 1</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:51:32</t>
+  </si>
+  <si>
+    <t>№ чека QR9997495207</t>
+  </si>
+  <si>
+    <t>6497468593_1743096054_32530711.pdf</t>
+  </si>
+  <si>
+    <t>Тыржанова Гулбану</t>
+  </si>
+  <si>
+    <t>77022496565</t>
+  </si>
+  <si>
+    <t>Актау , Қызыл тобе 2 , участок 2020/2</t>
+  </si>
+  <si>
+    <t>2025-03-27 17:24:17</t>
+  </si>
+  <si>
+    <t>№ чека QR9997970752</t>
+  </si>
+  <si>
+    <t>770514105_1743101938_33204774.pdf</t>
+  </si>
+  <si>
+    <t>Жексенов Әлібек</t>
+  </si>
+  <si>
+    <t>77027501068</t>
+  </si>
+  <si>
+    <t>Атырау қаласы, Күйші Байжұма өткелі , 2</t>
+  </si>
+  <si>
+    <t>2025-03-27 18:59:58</t>
+  </si>
+  <si>
+    <t>№ чека QR9987493281</t>
+  </si>
+  <si>
+    <t>Dulat78</t>
+  </si>
+  <si>
+    <t>751098074_1743107322_51002354.pdf</t>
+  </si>
+  <si>
+    <t>/help</t>
+  </si>
+  <si>
+    <t>77474541080</t>
+  </si>
+  <si>
+    <t>Алматы қаласы, Гоголь көшесі, 47 үй, 7 пәтер</t>
+  </si>
+  <si>
+    <t>2025-03-27 20:30:10</t>
+  </si>
+  <si>
+    <t>№ чека QR9998211510</t>
+  </si>
+  <si>
+    <t>1047758898_1743109501_75287578.pdf</t>
+  </si>
+  <si>
+    <t>Кара 
+Ертанов Ерсұлтан</t>
+  </si>
+  <si>
+    <t>77479692050</t>
+  </si>
+  <si>
+    <t>Алматы ,Ади Шарипова 106,кафе,палау нан</t>
+  </si>
+  <si>
+    <t>2025-03-27 21:20:37</t>
+  </si>
+  <si>
+    <t>№ чека QR10009066822</t>
+  </si>
+  <si>
+    <t>7672403980_1743184989_54135942.pdf</t>
+  </si>
+  <si>
+    <t>Уалихан Ақерке</t>
+  </si>
+  <si>
+    <t>77058906721</t>
+  </si>
+  <si>
+    <t>Алматы,Карасайский район,Асыл арман 11дом, подьезд 1, 65кв</t>
+  </si>
+  <si>
+    <t>2025-03-28 18:04:42</t>
+  </si>
+  <si>
+    <t>№ чека QR10009163505</t>
+  </si>
+  <si>
+    <t>5648171214_1743186105_91334276.pdf</t>
+  </si>
+  <si>
+    <t>Сманова Гүлжанар</t>
+  </si>
+  <si>
+    <t>77075951650</t>
+  </si>
+  <si>
+    <t>2025-03-28 18:22:49</t>
+  </si>
+  <si>
+    <t>№ чека QR10054400913</t>
+  </si>
+  <si>
+    <t>AUmit_06</t>
+  </si>
+  <si>
+    <t>824163516_1743518533_98977281.pdf</t>
+  </si>
+  <si>
+    <t>Аскар Умит</t>
+  </si>
+  <si>
+    <t>77774753378</t>
+  </si>
+  <si>
+    <t>Астана, Байтурсынова 29а, 35 кв</t>
+  </si>
+  <si>
+    <t>2025-04-01 14:46:46</t>
+  </si>
+  <si>
+    <t>№ чека QR10054901093</t>
+  </si>
+  <si>
+    <t>8084536705_1743520698_44503683.pdf</t>
+  </si>
+  <si>
+    <t>Айдар Балабеков</t>
+  </si>
+  <si>
+    <t>77017103219</t>
+  </si>
+  <si>
+    <t>Навои 280</t>
+  </si>
+  <si>
+    <t>2025-04-01 15:19:17</t>
+  </si>
+  <si>
+    <t>№ чека QR10089706814</t>
+  </si>
+  <si>
+    <t>6533434217_1743761733_72536981.pdf</t>
+  </si>
+  <si>
+    <t>Мерей</t>
+  </si>
+  <si>
+    <t>77476396120</t>
+  </si>
+  <si>
+    <t>Алматы Зерделі 179/1 17</t>
+  </si>
+  <si>
+    <t>2025-04-04 10:21:24</t>
+  </si>
+  <si>
+    <t>№ чека QR10096632189</t>
+  </si>
+  <si>
+    <t>1932614554_1743793660_44773240.pdf</t>
+  </si>
+  <si>
+    <t>Курмашев Ертуған</t>
+  </si>
+  <si>
+    <t>77087558829</t>
+  </si>
+  <si>
+    <t>Шугула 340/3 к8</t>
+  </si>
+  <si>
+    <t>2025-04-04 19:09:22</t>
+  </si>
+  <si>
+    <t>№ чека QR10108801714</t>
+  </si>
+  <si>
+    <t>852098159_1743876716_30112363.pdf</t>
+  </si>
+  <si>
+    <t>Майра</t>
+  </si>
+  <si>
+    <t>77017705589</t>
+  </si>
+  <si>
+    <t>Актау каласы 31б-5-50</t>
+  </si>
+  <si>
+    <t>2025-04-05 18:12:51</t>
+  </si>
+  <si>
+    <t>№ чека QR10120213667</t>
+  </si>
+  <si>
+    <t>6224190698_1743957169_99670795.pdf</t>
+  </si>
+  <si>
+    <t>Темірлан Тілеуқұл</t>
+  </si>
+  <si>
+    <t>77084931217</t>
+  </si>
+  <si>
+    <t>Алматы, 20-шағын аудан, 46-үй, 9-пәтер</t>
+  </si>
+  <si>
+    <t>2025-04-06 16:34:46</t>
+  </si>
+  <si>
+    <t>№ чека QR10120577839</t>
+  </si>
+  <si>
+    <t>Razrabon4ik</t>
+  </si>
+  <si>
+    <t>1290807672_1743960088_68317067.pdf</t>
+  </si>
+  <si>
+    <t>Еркін Нұрмұқан</t>
+  </si>
+  <si>
+    <t>77013333788</t>
+  </si>
+  <si>
+    <t>Алматы облысы қарасай ауданы қырғауылды ауылы наурыз көшесі 53-үй</t>
+  </si>
+  <si>
+    <t>2025-04-06 17:26:30</t>
+  </si>
+  <si>
+    <t>№ чека QR10120685484</t>
+  </si>
+  <si>
+    <t>1290807672_1743960543_35482970.pdf</t>
+  </si>
+  <si>
+    <t>Еркін Нұрмуқан</t>
+  </si>
+  <si>
+    <t>Алматы облысы Қарасай ауданы қырғауылды ауылы наурыз көшесі 53-үй</t>
+  </si>
+  <si>
+    <t>2025-04-06 17:30:26</t>
+  </si>
+  <si>
+    <t>№ чека QR10120777617</t>
+  </si>
+  <si>
+    <t>510623470_1743961381_75289391.pdf</t>
+  </si>
+  <si>
+    <t>Бақыт Тушаев</t>
+  </si>
+  <si>
+    <t>77025611616</t>
+  </si>
+  <si>
+    <t>Тұздыбастау Сағадат Нұрмағанбетова 17</t>
+  </si>
+  <si>
+    <t>2025-04-06 17:44:01</t>
+  </si>
+  <si>
+    <t>№ чека QR10168395643</t>
+  </si>
+  <si>
+    <t>7978494965_1744281009_52563746.pdf</t>
+  </si>
+  <si>
+    <t>Айжан Хусанова Темиркановна</t>
+  </si>
+  <si>
+    <t>77757156420</t>
+  </si>
+  <si>
+    <t>Алматы обл
+Карасай ауданы
+Пос. Коксай
+Ул Наурызбай 104</t>
+  </si>
+  <si>
+    <t>2025-04-10 10:35:02</t>
+  </si>
+  <si>
+    <t>№ чека QR10174635757</t>
+  </si>
+  <si>
+    <t>1932614554_1744304953_41852315.pdf</t>
+  </si>
+  <si>
+    <t>Бота</t>
+  </si>
+  <si>
+    <t>2025-04-10 17:09:58</t>
+  </si>
+  <si>
+    <t>№ чека QR10177645941</t>
+  </si>
+  <si>
+    <t>Allgames3112</t>
+  </si>
+  <si>
+    <t>895513396_1744350722_95929485.pdf</t>
+  </si>
+  <si>
+    <t>Исатай Гүлмира Асқарқызы</t>
+  </si>
+  <si>
+    <t>77056362377</t>
+  </si>
+  <si>
+    <t>Түркістан қаласы, 39 үй, 13 квартира</t>
+  </si>
+  <si>
+    <t>2025-04-11 05:53:47</t>
+  </si>
+  <si>
+    <t>Түбіртек № QR10183337285</t>
+  </si>
+  <si>
+    <t>1640911027_1744371226_73295502.pdf</t>
+  </si>
+  <si>
+    <t>Жанар Дарханова</t>
+  </si>
+  <si>
+    <t>77779194910</t>
+  </si>
+  <si>
+    <t>Алматы 
+Көксай квартыл 45
+Уй номері 20</t>
+  </si>
+  <si>
+    <t>2025-04-11 11:35:56</t>
+  </si>
+  <si>
+    <t>Түбіртек № QR10168067630</t>
+  </si>
+  <si>
+    <t>914925715_1744377829_89359089.pdf</t>
+  </si>
+  <si>
+    <t>Бегасилов Курманбек</t>
+  </si>
+  <si>
+    <t>77051501783</t>
+  </si>
+  <si>
+    <t>Алматы қаласы Бөкейханов 484</t>
+  </si>
+  <si>
+    <t>2025-04-11 13:27:15</t>
+  </si>
+  <si>
+    <t>№ чека QR10151670708</t>
+  </si>
+  <si>
+    <t>Саламатсыз ба!</t>
+  </si>
+  <si>
+    <t>1053731357_1744184269_58240336.pdf</t>
+  </si>
+  <si>
+    <t>9 күні төледім</t>
+  </si>
+  <si>
+    <t>77026287765</t>
+  </si>
+  <si>
+    <t>Шымкент қаласы, Азат мкр, Ақбастау 290</t>
+  </si>
+  <si>
+    <t>2025-04-12 14:01:33</t>
+  </si>
+  <si>
+    <t>№ чека QR10202438255</t>
+  </si>
+  <si>
+    <t>648479884_1744479178_94816287.pdf</t>
+  </si>
+  <si>
+    <t>Динара Әділбек</t>
+  </si>
+  <si>
+    <t>77786106341</t>
+  </si>
+  <si>
+    <t>Қызылорда облысы Шиелі ауданы  Ибрагим Шоқаев көшесі 6үй</t>
+  </si>
+  <si>
+    <t>2025-04-12 17:33:50</t>
+  </si>
+  <si>
+    <t>№ чека QR10203116270</t>
+  </si>
+  <si>
+    <t>1670964712_1744488284_55375308.pdf</t>
+  </si>
+  <si>
+    <t>Дуйсембаев Данияр</t>
+  </si>
+  <si>
+    <t>77012340809</t>
+  </si>
+  <si>
+    <t>Қарағанды қаласы 
+Шолпан Жандарбекова 117 үй</t>
+  </si>
+  <si>
+    <t>2025-04-12 20:13:38</t>
+  </si>
+  <si>
+    <t>№ чека QR10204347035</t>
+  </si>
+  <si>
+    <t>5233713307_1744522044_58899890.pdf</t>
+  </si>
+  <si>
+    <t>Батырлан</t>
+  </si>
+  <si>
+    <t>77479006125</t>
+  </si>
+  <si>
+    <t>Жаркент қаласы Үлкен шыған ауылы Музапарова 18</t>
+  </si>
+  <si>
+    <t>2025-04-13 05:28:53</t>
+  </si>
+  <si>
+    <t>№ чека QR10204348335</t>
+  </si>
+  <si>
+    <t>ayvnvv</t>
+  </si>
+  <si>
+    <t>1754438421_1744522033_34322627.pdf</t>
+  </si>
+  <si>
+    <t>Ертанова Аяеа</t>
+  </si>
+  <si>
+    <t>+77472623204</t>
+  </si>
+  <si>
+    <t>Жетису 2, 85</t>
+  </si>
+  <si>
+    <t>2025-04-13 05:29:41</t>
+  </si>
+  <si>
+    <t>№ чека QR10202128840</t>
+  </si>
+  <si>
+    <t>5951312368_1744479870_24435120.pdf</t>
+  </si>
+  <si>
+    <t>Zulaykho</t>
+  </si>
+  <si>
+    <t>77073881483</t>
+  </si>
+  <si>
+    <t>Микрорайон Астана15</t>
+  </si>
+  <si>
+    <t>2025-04-13 06:24:53</t>
+  </si>
+  <si>
+    <t>№ чека QR10208447929</t>
+  </si>
+  <si>
+    <t>8014322208_1744539208_59217577.pdf</t>
+  </si>
+  <si>
+    <t>Токаев Ерден</t>
+  </si>
+  <si>
+    <t>77078234146</t>
+  </si>
+  <si>
+    <t>Алматы Бесагаш</t>
+  </si>
+  <si>
+    <t>2025-04-13 10:16:50</t>
+  </si>
+  <si>
+    <t>№ чека QR10209500835</t>
+  </si>
+  <si>
+    <t>881039013_1744543038_88022139.pdf</t>
+  </si>
+  <si>
+    <t>Адилбек Утемуратов</t>
+  </si>
+  <si>
+    <t>77079777052</t>
+  </si>
+  <si>
+    <t>Алматы с.Каргалы Бекетайулы 100</t>
+  </si>
+  <si>
+    <t>2025-04-13 11:18:12</t>
+  </si>
+  <si>
+    <t>№ чека QR10209634847</t>
+  </si>
+  <si>
+    <t>1068242403_1744543641_94166361.pdf</t>
+  </si>
+  <si>
+    <t>Жумагулов Жандос</t>
+  </si>
+  <si>
+    <t>77012765000</t>
+  </si>
+  <si>
+    <t>Алматы облысы Карасай ауданы Жанатурмыс ауылы Аманжолова 11</t>
+  </si>
+  <si>
+    <t>2025-04-13 11:28:41</t>
+  </si>
+  <si>
+    <t>№ чека QR10209995193</t>
+  </si>
+  <si>
+    <t>1620753862_1744544901_64574611.pdf</t>
+  </si>
+  <si>
+    <t>Наржигитов Марат</t>
+  </si>
+  <si>
+    <t>77471706070</t>
+  </si>
+  <si>
+    <t>Хабибулина 7</t>
+  </si>
+  <si>
+    <t>2025-04-13 11:54:09</t>
+  </si>
+  <si>
+    <t>№ чека QR10210122483</t>
+  </si>
+  <si>
+    <t>683511501_1744545357_91406292.pdf</t>
+  </si>
+  <si>
+    <t>Роман Майғазиев</t>
+  </si>
+  <si>
+    <t>77013300030</t>
+  </si>
+  <si>
+    <t>Село Жамбыл, май 25</t>
+  </si>
+  <si>
+    <t>2025-04-13 11:56:47</t>
+  </si>
+  <si>
+    <t>№ чека QR10210235896</t>
+  </si>
+  <si>
+    <t>tamshygj</t>
+  </si>
+  <si>
+    <t>822671694_1744545793_92317615.pdf</t>
+  </si>
+  <si>
+    <t>Гани Жаксылыков</t>
+  </si>
+  <si>
+    <t>77764591991</t>
+  </si>
+  <si>
+    <t>Алматы, 1-лисянского, 3 үй, 8 пәтер.</t>
+  </si>
+  <si>
+    <t>2025-04-13 12:04:42</t>
+  </si>
+  <si>
+    <t>Түбіртек № QR10210429811</t>
+  </si>
+  <si>
+    <t>5893839737_1744546524_49514628.pdf</t>
+  </si>
+  <si>
+    <t>Байсова Ақнұр</t>
+  </si>
+  <si>
+    <t>77478521269</t>
+  </si>
+  <si>
+    <t>Ұлытау облысы Жаңаарқа ауданы Игиликов 4</t>
+  </si>
+  <si>
+    <t>2025-04-13 12:16:26</t>
+  </si>
+  <si>
+    <t>№ чека QR10210627455</t>
+  </si>
+  <si>
+    <t>5140805072_1744547259_17019414.pdf</t>
+  </si>
+  <si>
+    <t>Айтбаева Гулкен</t>
+  </si>
+  <si>
+    <t>77077725397</t>
+  </si>
+  <si>
+    <t>Алматы облысы Карасай ауданы Береке ауылы
+Тамабаев 9</t>
+  </si>
+  <si>
+    <t>2025-04-13 12:30:00</t>
+  </si>
+  <si>
+    <t>№ чека QR10210846897</t>
+  </si>
+  <si>
+    <t>Marakuss09</t>
+  </si>
+  <si>
+    <t>6026445436_1744548118_85744652.pdf</t>
+  </si>
+  <si>
+    <t>Кусаинова Маржан</t>
+  </si>
+  <si>
+    <t>77057389081</t>
+  </si>
+  <si>
+    <t>Акмолинская область, Бурабайский район село Урумкай ул.Озерная 7</t>
+  </si>
+  <si>
+    <t>2025-04-13 12:43:44</t>
+  </si>
+  <si>
+    <t>№ чека QR10211336719</t>
+  </si>
+  <si>
+    <t>848158693_1744549971_94818950.pdf</t>
+  </si>
+  <si>
+    <t>Мади Мадияров</t>
+  </si>
+  <si>
+    <t>77071777297</t>
+  </si>
+  <si>
+    <t>2025-04-13 13:13:15</t>
+  </si>
+  <si>
+    <t>🧧 Ұтыс билеттерім</t>
+  </si>
+  <si>
+    <t>2025-04-13 13:13:17</t>
+  </si>
+  <si>
+    <t>№ чека QR10211525842</t>
+  </si>
+  <si>
+    <t>1068242403_1744550754_38714804.pdf</t>
+  </si>
+  <si>
+    <t>Алматы облысы карасай ауданы жанатурмыс ауылы аманжолова 11</t>
+  </si>
+  <si>
+    <t>2025-04-13 13:26:46</t>
+  </si>
+  <si>
+    <t>№ чека QR10210870307</t>
+  </si>
+  <si>
+    <t>ardana_z</t>
+  </si>
+  <si>
+    <t>418297167_1744551986_30332436.pdf</t>
+  </si>
+  <si>
+    <t>Капанов Жомарт</t>
+  </si>
+  <si>
+    <t>77012240972</t>
+  </si>
+  <si>
+    <t>Алматы, Аспандиярова 196</t>
+  </si>
+  <si>
+    <t>2025-04-13 14:53:37</t>
+  </si>
+  <si>
+    <t>№ чека QR10212960862</t>
+  </si>
+  <si>
+    <t>baglan_abdraimov_official</t>
+  </si>
+  <si>
+    <t>492138994_1744556720_19242906.pdf</t>
+  </si>
+  <si>
+    <t>Бағлан Абрайм</t>
+  </si>
+  <si>
+    <t>77010808083</t>
+  </si>
+  <si>
+    <t>2025-04-13 15:05:48</t>
+  </si>
+  <si>
+    <t>2025-04-13 15:05:50</t>
+  </si>
+  <si>
+    <t>№ чека QR10213010886</t>
+  </si>
+  <si>
+    <t>alishnur00</t>
+  </si>
+  <si>
+    <t>5380782452_1744556951_78847464.pdf</t>
+  </si>
+  <si>
+    <t>Нұрсабыр Әлішер</t>
+  </si>
+  <si>
+    <t>77066166606</t>
+  </si>
+  <si>
+    <t>Алматы қаласы</t>
+  </si>
+  <si>
+    <t>2025-04-13 15:09:46</t>
   </si>
 </sst>
 </file>
@@ -408,13 +1360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,15 +1392,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>800703982</v>
+        <v>840315542</v>
       </c>
       <c r="C2">
-        <v>63481616</v>
+        <v>87311776</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -456,36 +1408,36 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6063547663</v>
+        <v>534713083</v>
       </c>
       <c r="C3">
-        <v>93843159</v>
+        <v>22368389</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
@@ -499,6 +1451,2044 @@
       </c>
       <c r="J3" t="s">
         <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1019994867</v>
+      </c>
+      <c r="C4">
+        <v>98303109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5393218309</v>
+      </c>
+      <c r="C5">
+        <v>48679766</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>728968199</v>
+      </c>
+      <c r="C6">
+        <v>57578077</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6011915750</v>
+      </c>
+      <c r="C7">
+        <v>74882425</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6856678700</v>
+      </c>
+      <c r="C8">
+        <v>47806183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>957813212</v>
+      </c>
+      <c r="C9">
+        <v>13972453</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>957813212</v>
+      </c>
+      <c r="C10">
+        <v>67912079</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7426205997</v>
+      </c>
+      <c r="C11">
+        <v>23527912</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6522265911</v>
+      </c>
+      <c r="C12">
+        <v>98995316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6522265911</v>
+      </c>
+      <c r="C13">
+        <v>83364166</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6063547663</v>
+      </c>
+      <c r="C14">
+        <v>91813075</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6497468593</v>
+      </c>
+      <c r="C15">
+        <v>16414950</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>770514105</v>
+      </c>
+      <c r="C16">
+        <v>77434915</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>751098074</v>
+      </c>
+      <c r="C17">
+        <v>40393363</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1047758898</v>
+      </c>
+      <c r="C18">
+        <v>28587554</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7672403980</v>
+      </c>
+      <c r="C19">
+        <v>55041964</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5648171214</v>
+      </c>
+      <c r="C20">
+        <v>43737700</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>824163516</v>
+      </c>
+      <c r="C21">
+        <v>20506729</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8084536705</v>
+      </c>
+      <c r="C22">
+        <v>52163419</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6533434217</v>
+      </c>
+      <c r="C23">
+        <v>23273027</v>
+      </c>
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1932614554</v>
+      </c>
+      <c r="C24">
+        <v>76376349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1932614554</v>
+      </c>
+      <c r="C25">
+        <v>61264945</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>852098159</v>
+      </c>
+      <c r="C26">
+        <v>23596187</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6224190698</v>
+      </c>
+      <c r="C27">
+        <v>45355798</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1290807672</v>
+      </c>
+      <c r="C28">
+        <v>57177530</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" t="s">
+        <v>166</v>
+      </c>
+      <c r="J28" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1290807672</v>
+      </c>
+      <c r="C29">
+        <v>74341659</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>510623470</v>
+      </c>
+      <c r="C30">
+        <v>23240673</v>
+      </c>
+      <c r="D30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>510623470</v>
+      </c>
+      <c r="C31">
+        <v>20902813</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>510623470</v>
+      </c>
+      <c r="C32">
+        <v>85833495</v>
+      </c>
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>510623470</v>
+      </c>
+      <c r="C33">
+        <v>79506824</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>510623470</v>
+      </c>
+      <c r="C34">
+        <v>48379894</v>
+      </c>
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7978494965</v>
+      </c>
+      <c r="C35">
+        <v>12336894</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1932614554</v>
+      </c>
+      <c r="C36">
+        <v>59820546</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>895513396</v>
+      </c>
+      <c r="C37">
+        <v>41423103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1640911027</v>
+      </c>
+      <c r="C38">
+        <v>69143707</v>
+      </c>
+      <c r="D38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" t="s">
+        <v>200</v>
+      </c>
+      <c r="J38" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>914925715</v>
+      </c>
+      <c r="C39">
+        <v>56999669</v>
+      </c>
+      <c r="D39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1053731357</v>
+      </c>
+      <c r="C40">
+        <v>39584838</v>
+      </c>
+      <c r="D40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" t="s">
+        <v>213</v>
+      </c>
+      <c r="J40" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>648479884</v>
+      </c>
+      <c r="C41">
+        <v>76129335</v>
+      </c>
+      <c r="D41" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" t="s">
+        <v>218</v>
+      </c>
+      <c r="I41" t="s">
+        <v>219</v>
+      </c>
+      <c r="J41" t="s">
+        <v>220</v>
+      </c>
+      <c r="K41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1670964712</v>
+      </c>
+      <c r="C42">
+        <v>40073820</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" t="s">
+        <v>225</v>
+      </c>
+      <c r="J42" t="s">
+        <v>226</v>
+      </c>
+      <c r="K42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5233713307</v>
+      </c>
+      <c r="C43">
+        <v>12729005</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" t="s">
+        <v>231</v>
+      </c>
+      <c r="J43" t="s">
+        <v>232</v>
+      </c>
+      <c r="K43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1754438421</v>
+      </c>
+      <c r="C44">
+        <v>58889665</v>
+      </c>
+      <c r="D44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" t="s">
+        <v>237</v>
+      </c>
+      <c r="I44" t="s">
+        <v>238</v>
+      </c>
+      <c r="J44" t="s">
+        <v>239</v>
+      </c>
+      <c r="K44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5951312368</v>
+      </c>
+      <c r="C45">
+        <v>41798204</v>
+      </c>
+      <c r="D45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" t="s">
+        <v>243</v>
+      </c>
+      <c r="I45" t="s">
+        <v>244</v>
+      </c>
+      <c r="J45" t="s">
+        <v>245</v>
+      </c>
+      <c r="K45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>8014322208</v>
+      </c>
+      <c r="C46">
+        <v>81905706</v>
+      </c>
+      <c r="D46" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>248</v>
+      </c>
+      <c r="H46" t="s">
+        <v>249</v>
+      </c>
+      <c r="I46" t="s">
+        <v>250</v>
+      </c>
+      <c r="J46" t="s">
+        <v>251</v>
+      </c>
+      <c r="K46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>8014322208</v>
+      </c>
+      <c r="C47">
+        <v>18141630</v>
+      </c>
+      <c r="D47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I47" t="s">
+        <v>250</v>
+      </c>
+      <c r="J47" t="s">
+        <v>251</v>
+      </c>
+      <c r="K47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>881039013</v>
+      </c>
+      <c r="C48">
+        <v>47501213</v>
+      </c>
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" t="s">
+        <v>255</v>
+      </c>
+      <c r="I48" t="s">
+        <v>256</v>
+      </c>
+      <c r="J48" t="s">
+        <v>257</v>
+      </c>
+      <c r="K48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>881039013</v>
+      </c>
+      <c r="C49">
+        <v>83477971</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49" t="s">
+        <v>256</v>
+      </c>
+      <c r="J49" t="s">
+        <v>257</v>
+      </c>
+      <c r="K49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1068242403</v>
+      </c>
+      <c r="C50">
+        <v>36364646</v>
+      </c>
+      <c r="D50" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>260</v>
+      </c>
+      <c r="H50" t="s">
+        <v>261</v>
+      </c>
+      <c r="I50" t="s">
+        <v>262</v>
+      </c>
+      <c r="J50" t="s">
+        <v>263</v>
+      </c>
+      <c r="K50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1068242403</v>
+      </c>
+      <c r="C51">
+        <v>24135791</v>
+      </c>
+      <c r="D51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>260</v>
+      </c>
+      <c r="H51" t="s">
+        <v>261</v>
+      </c>
+      <c r="I51" t="s">
+        <v>262</v>
+      </c>
+      <c r="J51" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1620753862</v>
+      </c>
+      <c r="C52">
+        <v>85812591</v>
+      </c>
+      <c r="D52" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>683511501</v>
+      </c>
+      <c r="C53">
+        <v>50341241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>272</v>
+      </c>
+      <c r="H53" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53" t="s">
+        <v>274</v>
+      </c>
+      <c r="J53" t="s">
+        <v>275</v>
+      </c>
+      <c r="K53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>822671694</v>
+      </c>
+      <c r="C54">
+        <v>72496010</v>
+      </c>
+      <c r="D54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>278</v>
+      </c>
+      <c r="G54" t="s">
+        <v>279</v>
+      </c>
+      <c r="H54" t="s">
+        <v>280</v>
+      </c>
+      <c r="I54" t="s">
+        <v>281</v>
+      </c>
+      <c r="J54" t="s">
+        <v>282</v>
+      </c>
+      <c r="K54" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5893839737</v>
+      </c>
+      <c r="C55">
+        <v>68249304</v>
+      </c>
+      <c r="D55" t="s">
+        <v>284</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>285</v>
+      </c>
+      <c r="H55" t="s">
+        <v>286</v>
+      </c>
+      <c r="I55" t="s">
+        <v>287</v>
+      </c>
+      <c r="J55" t="s">
+        <v>288</v>
+      </c>
+      <c r="K55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5140805072</v>
+      </c>
+      <c r="C56">
+        <v>87121120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56" t="s">
+        <v>292</v>
+      </c>
+      <c r="I56" t="s">
+        <v>293</v>
+      </c>
+      <c r="J56" t="s">
+        <v>294</v>
+      </c>
+      <c r="K56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6026445436</v>
+      </c>
+      <c r="C57">
+        <v>59600295</v>
+      </c>
+      <c r="D57" t="s">
+        <v>296</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" t="s">
+        <v>297</v>
+      </c>
+      <c r="G57" t="s">
+        <v>298</v>
+      </c>
+      <c r="H57" t="s">
+        <v>299</v>
+      </c>
+      <c r="I57" t="s">
+        <v>300</v>
+      </c>
+      <c r="J57" t="s">
+        <v>301</v>
+      </c>
+      <c r="K57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>848158693</v>
+      </c>
+      <c r="C58">
+        <v>76932334</v>
+      </c>
+      <c r="D58" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>304</v>
+      </c>
+      <c r="H58" t="s">
+        <v>305</v>
+      </c>
+      <c r="I58" t="s">
+        <v>306</v>
+      </c>
+      <c r="J58" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>848158693</v>
+      </c>
+      <c r="C59">
+        <v>16567222</v>
+      </c>
+      <c r="D59" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>304</v>
+      </c>
+      <c r="H59" t="s">
+        <v>305</v>
+      </c>
+      <c r="I59" t="s">
+        <v>306</v>
+      </c>
+      <c r="J59" t="s">
+        <v>308</v>
+      </c>
+      <c r="K59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1068242403</v>
+      </c>
+      <c r="C60">
+        <v>35641310</v>
+      </c>
+      <c r="D60" t="s">
+        <v>310</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>311</v>
+      </c>
+      <c r="H60" t="s">
+        <v>261</v>
+      </c>
+      <c r="I60" t="s">
+        <v>262</v>
+      </c>
+      <c r="J60" t="s">
+        <v>312</v>
+      </c>
+      <c r="K60" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>418297167</v>
+      </c>
+      <c r="C61">
+        <v>93159294</v>
+      </c>
+      <c r="D61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>315</v>
+      </c>
+      <c r="G61" t="s">
+        <v>316</v>
+      </c>
+      <c r="H61" t="s">
+        <v>317</v>
+      </c>
+      <c r="I61" t="s">
+        <v>318</v>
+      </c>
+      <c r="J61" t="s">
+        <v>319</v>
+      </c>
+      <c r="K61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>418297167</v>
+      </c>
+      <c r="C62">
+        <v>19878484</v>
+      </c>
+      <c r="D62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>315</v>
+      </c>
+      <c r="G62" t="s">
+        <v>316</v>
+      </c>
+      <c r="H62" t="s">
+        <v>317</v>
+      </c>
+      <c r="I62" t="s">
+        <v>318</v>
+      </c>
+      <c r="J62" t="s">
+        <v>319</v>
+      </c>
+      <c r="K62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>492138994</v>
+      </c>
+      <c r="C63">
+        <v>53455561</v>
+      </c>
+      <c r="D63" t="s">
+        <v>321</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" t="s">
+        <v>323</v>
+      </c>
+      <c r="H63" t="s">
+        <v>324</v>
+      </c>
+      <c r="I63" t="s">
+        <v>325</v>
+      </c>
+      <c r="J63" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>492138994</v>
+      </c>
+      <c r="C64">
+        <v>53228759</v>
+      </c>
+      <c r="D64" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>322</v>
+      </c>
+      <c r="G64" t="s">
+        <v>323</v>
+      </c>
+      <c r="H64" t="s">
+        <v>324</v>
+      </c>
+      <c r="I64" t="s">
+        <v>325</v>
+      </c>
+      <c r="J64" t="s">
+        <v>308</v>
+      </c>
+      <c r="K64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5380782452</v>
+      </c>
+      <c r="C65">
+        <v>71131973</v>
+      </c>
+      <c r="D65" t="s">
+        <v>328</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>329</v>
+      </c>
+      <c r="G65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H65" t="s">
+        <v>331</v>
+      </c>
+      <c r="I65" t="s">
+        <v>332</v>
+      </c>
+      <c r="J65" t="s">
+        <v>333</v>
+      </c>
+      <c r="K65" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
